--- a/apiscript_fork/testCase/test_Case.xlsx
+++ b/apiscript_fork/testCase/test_Case.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pyhton代码test\apiscript_fork\testCase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65DD7A9C-8FDF-43E0-B6A4-656B09C55AC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1F2AA6-E81F-46B3-8EE7-348460DC1A08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="测试用例" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -165,10 +165,6 @@
   <si>
     <t>"{$.token_type}"=="bearer"
 "data"==10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://sharpsit.jusdaglobal.com/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -191,6 +187,18 @@
 服务器地址说明：
   1、服务器地址格式：https://j1.sccpcloud.com
   2、如果服务器地址经常变动可以选择不填，在测试用例里面将接口地址写全</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://sharpsit.jusdaglobal.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -571,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -713,8 +721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D63F73CA-2B35-41E9-8B9F-40D98C812542}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -729,7 +737,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>12</v>
@@ -748,20 +756,23 @@
       </c>
     </row>
     <row r="2" spans="1:6" s="6" customFormat="1" ht="168.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="B2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">

--- a/apiscript_fork/testCase/test_Case.xlsx
+++ b/apiscript_fork/testCase/test_Case.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pyhton代码test\apiscript_fork\testCase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1F2AA6-E81F-46B3-8EE7-348460DC1A08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F6B298-592F-4C39-8806-AD7B5E774EA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="测试用例" sheetId="1" r:id="rId1"/>
-    <sheet name="初始化" sheetId="3" r:id="rId2"/>
-    <sheet name="配置" sheetId="2" r:id="rId3"/>
+    <sheet name="配置" sheetId="2" r:id="rId2"/>
+    <sheet name="初始化" sheetId="3" r:id="rId3"/>
     <sheet name="使用说明" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,10 +48,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>关联变量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>请求参数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -156,16 +152,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"PO":{$.content[8]}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"token_type":"{$.token_type}","access_token":"{$.access_token}"}</t>
-  </si>
-  <si>
-    <t>"{$.token_type}"=="bearer"
-"data"==10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sharp接口报告</t>
@@ -198,7 +185,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[2]</t>
+    <t>{"PO":{$..content[8]}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"{$.token_type}"=="bearer"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全局变量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -230,7 +225,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -240,6 +235,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -274,9 +275,6 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -296,6 +294,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -579,109 +580,109 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="18" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12" style="3" customWidth="1"/>
-    <col min="4" max="4" width="17.125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="20.25" style="3" customWidth="1"/>
-    <col min="6" max="6" width="17.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="14.25" style="3" customWidth="1"/>
-    <col min="8" max="8" width="41.25" style="3" customWidth="1"/>
-    <col min="9" max="9" width="23.75" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="12.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.25" style="2" customWidth="1"/>
+    <col min="8" max="8" width="41.25" style="2" customWidth="1"/>
+    <col min="9" max="9" width="23.75" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>32</v>
+      <c r="H2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -691,37 +692,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6137A75D-6829-400C-AB6F-C54308CB9DB1}">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D63F73CA-2B35-41E9-8B9F-40D98C812542}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -736,48 +710,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="8" t="s">
+      <c r="A1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>17</v>
+      <c r="F1" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="6" customFormat="1" ht="168.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="6" t="s">
+    <row r="2" spans="1:6" s="5" customFormat="1" ht="168.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -785,6 +756,33 @@
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{B07FED50-6794-4584-A278-EF71F99B578B}"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6137A75D-6829-400C-AB6F-C54308CB9DB1}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/apiscript_fork/testCase/test_Case.xlsx
+++ b/apiscript_fork/testCase/test_Case.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pyhton代码test\apiscript_fork\testCase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F6B298-592F-4C39-8806-AD7B5E774EA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{652FCDB9-4336-4B7E-9BC9-5F30A10D0D61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,25 +16,19 @@
     <sheet name="测试用例" sheetId="1" r:id="rId1"/>
     <sheet name="配置" sheetId="2" r:id="rId2"/>
     <sheet name="初始化" sheetId="3" r:id="rId3"/>
-    <sheet name="使用说明" sheetId="4" r:id="rId4"/>
+    <sheet name="使用说明 " sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -189,19 +183,887 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"{$.token_type}"=="bearer"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>全局变量</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用前说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、安装依赖包：pip install jsonpath
+2、将自己的测试用例复制到测试用例sheet页，根据规则修改，编写用例不能使用中文符号，不能有多余空格
+3、根据自己项目情况修改配置文件sheet页，
+4、新增注册等接口，要求唯一的可以在初始化sheet页，根据自己需要填写。要引用的地方换成 ”{$..用户名}“
+5、编写完用例，执行run.py文件，将自动生成测试报告
+6、参数中有布尔值、空值书写格式：  True     False     None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试用例填写说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1./xxx/xxxx/xxxxxx
+2.引用全局变量格式:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{jsonpath表达式}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ 例：/xxx/xxxx/xxxxxx/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{$..token  }</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.当没有请求参数的时候请填：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>无</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2.有值时请填字典格式的数据：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{"xxxx":"xxx"}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3.需要引用全局变量格式 ：
+ （1）引用的全局变量值是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>字符串</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：
+          格式：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"{jsonpath表达式}"   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    列如：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {"id":"{$..data.id}"}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    (2) 引用的全局变量是值是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数字、布尔值、列表、字典、空值：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+          格式： </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {jsonpath表达式}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">         例如:   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{"ids":{$..id}}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.不需要定义全局变量请填：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>无</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2.需要定义全局变量： </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {"键":"{jsonpath表达式}"}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3.全局变量格式 ：
+ （1）全局变量的值是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>字符串</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：
+          格式：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"{jsonpath表达式}"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">      列如：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {"tkoken":"{$..data}"}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    (2) 全局变量的值是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数字、布尔值、列表、字典、空值：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+          格式： </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {jsonpath表达式} </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">        例如:  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {"ids":{$..id}}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1、预期结果是一个表达式，你可以使用
+       关系运算符：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;    &lt;    &gt;=   &lt;=   ==    !=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+       身份运算符：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">is       is  not  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+       成员运算符: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in         not  in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+       逻辑运算符：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>and      or     not</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+   （1）例如预期结果是字符串： 
+              </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"{jsonpath表达式}"=="你好"
+               "{jsonpath表达式}"   is   "你好"
+               "{jsonpath表达式}"   in  "你好"
+               "{jsonpath表达式}"   is   "你好"  and  1==1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    （2）预期结果是数字、列表、字典、布尔值、空
+                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {jsonpath表达式}!=9999
+                 {jsonpath表达式}==None 
+                 {jsonpath表达式}==True
+                 {jsonpath表达式}!=False 
+                 {jsonpath表达式}    in   [1,2,3]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2、预期结果可以是一个也可以是多个，有多个可以用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>逗号，分号，换行隔开</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    格式 ：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {jsonpath表达式}==值1，"{jsonpath表达式}"=="值2"，{jsonpath表达式}==值3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    例如： </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（1)"{$..data}"!=None，{$..success}==True
+                 （2)"{$..userId}"=="USR_10585；"{$..success}==True
+                    (3)"{$..userId}"=="USR_10585"
+                          {$..success}==True</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化填写说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义键名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租户邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租户手机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1、目前支持的填写类型有：
+     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数字、字母、汉字、邮箱、手机号、特殊符号、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 、   _ 、  @、  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2、填写格式：
+   (1)可以指定生成字符个数： </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>如：5数字      5汉字    5字母</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+   (2)也可以不指定个数,会随机生成1-10个字符:   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 如:   数字        汉字</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  
+   (3)可以指定生成多种数据类型,用+号连接： 5数+10汉字+8字母
+   (4)可以指定生成符号点、空格、下划线：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5.      5_     4@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+   (5) 可以指定生成+86-开头手机号： </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 手机号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+   (6) 生成邮箱：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 邮箱（不指定长度会随机生成4-30个字符的邮箱）
+                            50邮箱（生成指定长度的邮箱）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+   (7)生成空格：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">直接在表格里输入空格
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   (8) 例子：   字母+5汉字+10特殊符号+_+@+数字</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"{$.token_type}"=="bearer"
+len({$.token_type})==6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,8 +1086,62 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -244,8 +1160,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -268,12 +1190,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -296,6 +1255,56 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -581,7 +1590,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -621,7 +1630,7 @@
         <v>7</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>4</v>
@@ -653,7 +1662,7 @@
         <v>29</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -788,14 +1797,143 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{485C0749-0B8E-44FA-B42E-E21B77C9989D}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CAB19CF-928B-4B83-812E-62162988B7EC}">
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="31.875" customWidth="1"/>
+    <col min="2" max="2" width="19.25" customWidth="1"/>
+    <col min="3" max="3" width="17.75" customWidth="1"/>
+    <col min="4" max="4" width="21.625" customWidth="1"/>
+    <col min="5" max="5" width="50" customWidth="1"/>
+    <col min="6" max="6" width="79" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="12" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="11"/>
+    </row>
+    <row r="2" spans="1:6" s="12" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="15"/>
+    </row>
+    <row r="3" spans="1:6" s="12" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+    </row>
+    <row r="4" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="12" customFormat="1" ht="348.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="12" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+    </row>
+    <row r="7" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="12" customFormat="1" ht="244.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="B7:D7"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/apiscript_fork/testCase/test_Case.xlsx
+++ b/apiscript_fork/testCase/test_Case.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pyhton代码test\apiscript_fork\testCase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{652FCDB9-4336-4B7E-9BC9-5F30A10D0D61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782EA734-9FCA-4491-B02D-03F8BE250FB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="6210" yWindow="3390" windowWidth="17955" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="测试用例" sheetId="1" r:id="rId1"/>
@@ -1590,7 +1590,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1636,7 +1636,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="165" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1665,7 +1665,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
